--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\190040\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\esy\projekt\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7061A9C-6491-4C14-97E0-C2A121331484}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C29459-3D0B-4563-B081-3C7183C4F555}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="227">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1115,6 +1115,9 @@
   </si>
   <si>
     <t>geschaut was man alles noch machen muss, versucht es zum laufen zu bringen --&gt; Leitungen abgebrannt daraufhin hat es gestunken, es ist aber kurz gefahren mit allen Rädern :)</t>
+  </si>
+  <si>
+    <t>Pins neu belegt weil es nicht funktioniert hat, Code aus internet genommen und erweitert, -- Auto fährt jetzt</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1510,7 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1822,12 +1825,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1836,36 +1872,6 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2376,14 +2382,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2432,10 +2438,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="109"/>
+      <c r="F7" s="115"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2446,8 +2452,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2458,8 +2464,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2470,8 +2476,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2482,8 +2488,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2504,49 +2510,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2559,64 +2565,74 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="109" t="s">
+      <c r="A26" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109" t="s">
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="122"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="117" t="s">
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="118" t="s">
+      <c r="A29" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -2627,16 +2643,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2652,7 +2658,7 @@
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2664,11 +2670,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -2747,10 +2753,16 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="2"/>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>45257</v>
+      </c>
+      <c r="B10" s="41">
+        <v>2</v>
+      </c>
+      <c r="C10" s="108" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
@@ -2942,29 +2954,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="123"/>
+      <c r="C3" s="124"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="124"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="123"/>
+      <c r="C5" s="124"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -3175,8 +3187,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3187,11 +3199,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -3199,18 +3211,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -3246,7 +3258,9 @@
       <c r="B8" s="39">
         <v>45243</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="39">
+        <v>45257</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
@@ -3478,14 +3492,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3778,16 +3792,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4374,19 +4388,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -5050,16 +5064,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -5835,71 +5849,71 @@
       <c r="A21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="130" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="131" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="97"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="97"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="97"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5936,8 +5950,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5949,11 +5963,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -6043,10 +6057,16 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="104"/>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>45257</v>
+      </c>
+      <c r="B11" s="41">
+        <v>2</v>
+      </c>
+      <c r="C11" s="104" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\esy\projekt\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\190040\esy\projekt\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C29459-3D0B-4563-B081-3C7183C4F555}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06427441-202F-4B42-B197-EDE9D8F983A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="646" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="230">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1118,6 +1118,15 @@
   </si>
   <si>
     <t>Pins neu belegt weil es nicht funktioniert hat, Code aus internet genommen und erweitert, -- Auto fährt jetzt</t>
+  </si>
+  <si>
+    <t>sensoren gelötet</t>
+  </si>
+  <si>
+    <t>sensoren versucht zu programmieren</t>
+  </si>
+  <si>
+    <t>start stop buttons programmiert</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1519,7 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1828,6 +1837,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1846,32 +1882,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2382,14 +2394,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2438,10 +2450,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="115"/>
+      <c r="F7" s="111"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2452,8 +2464,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2464,8 +2476,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2476,8 +2488,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2488,8 +2500,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2510,49 +2522,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2565,74 +2577,64 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="115" t="s">
+      <c r="A26" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115" t="s">
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="110" t="s">
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -2643,6 +2645,16 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2658,7 +2670,7 @@
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,11 +2682,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -2765,14 +2777,22 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="40">
+        <v>45264</v>
+      </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="40">
+        <v>45264</v>
+      </c>
       <c r="B12" s="41"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
@@ -2954,29 +2974,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="124"/>
+      <c r="C3" s="125"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="125"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="124"/>
+      <c r="C5" s="125"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -3187,7 +3207,7 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -3199,11 +3219,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -3211,18 +3231,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -3492,14 +3512,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3778,7 +3798,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,16 +3812,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3974,10 +3994,16 @@
       <c r="D11" s="57">
         <v>2</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
+      <c r="E11" s="56">
+        <v>2</v>
+      </c>
+      <c r="F11" s="56">
+        <v>0</v>
+      </c>
       <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+      <c r="H11" s="58">
+        <v>45250</v>
+      </c>
       <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3991,10 +4017,16 @@
       <c r="D12" s="57">
         <v>2</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="E12" s="56">
+        <v>2</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0</v>
+      </c>
       <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="H12" s="58">
+        <v>45250</v>
+      </c>
       <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4008,10 +4040,16 @@
       <c r="D13" s="57">
         <v>3</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="E13" s="56">
+        <v>2</v>
+      </c>
+      <c r="F13" s="56">
+        <v>0</v>
+      </c>
       <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
+      <c r="H13" s="58">
+        <v>45257</v>
+      </c>
       <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4025,10 +4063,16 @@
       <c r="D14" s="57">
         <v>2</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
+      <c r="E14" s="56">
+        <v>1</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0</v>
+      </c>
       <c r="G14" s="58"/>
-      <c r="H14" s="56"/>
+      <c r="H14" s="58">
+        <v>45264</v>
+      </c>
       <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4068,8 +4112,12 @@
       <c r="D17" s="57">
         <v>2</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="E17" s="56">
+        <v>1</v>
+      </c>
+      <c r="F17" s="56">
+        <v>1</v>
+      </c>
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
       <c r="I17" s="59"/>
@@ -4338,11 +4386,11 @@
       </c>
       <c r="E35" s="49">
         <f>SUM(E10:E34)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F35" s="49">
         <f>SUM(F10:F34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="70"/>
     </row>
@@ -4388,19 +4436,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -5064,16 +5112,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -5849,71 +5897,71 @@
       <c r="A21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="131" t="s">
+      <c r="B24" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="97"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="97"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="97"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5950,8 +5998,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5963,11 +6011,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -6069,14 +6117,22 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="40">
+        <v>45264</v>
+      </c>
       <c r="B12" s="41"/>
-      <c r="C12" s="104"/>
+      <c r="C12" s="104" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="40">
+        <v>45264</v>
+      </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="104"/>
+      <c r="C13" s="109" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\esy\projekt\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C29459-3D0B-4563-B081-3C7183C4F555}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4C0426-EDFF-47A9-AA21-8B61345C2264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="231">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1118,6 +1118,18 @@
   </si>
   <si>
     <t>Pins neu belegt weil es nicht funktioniert hat, Code aus internet genommen und erweitert, -- Auto fährt jetzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttons implementiert </t>
+  </si>
+  <si>
+    <t>Sensoren gelötet</t>
+  </si>
+  <si>
+    <t>Sensoren versucht zu programmieren</t>
+  </si>
+  <si>
+    <t>Sourcetree installiert</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1504,13 +1516,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1826,6 +1883,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2382,14 +2463,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2438,10 +2519,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="E7" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="115"/>
+      <c r="F7" s="123"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2452,8 +2533,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2464,8 +2545,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2476,8 +2557,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2488,8 +2569,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2510,49 +2591,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2565,61 +2646,61 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="115" t="s">
+      <c r="A26" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115" t="s">
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="110" t="s">
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2657,8 +2738,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2670,11 +2751,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -2720,36 +2801,36 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="110">
         <v>45243</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="111" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="112" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+    <row r="8" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="114">
         <v>45243</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="115">
         <v>1</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="116" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="39">
         <v>45243</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="113">
         <v>1</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="38" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2765,14 +2846,26 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="40">
+        <v>45264</v>
+      </c>
+      <c r="B11" s="41">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="40">
+        <v>45264</v>
+      </c>
+      <c r="B12" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
@@ -2954,29 +3047,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="124"/>
+      <c r="C3" s="132"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="124"/>
+      <c r="C4" s="132"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="124"/>
+      <c r="C5" s="132"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -3187,8 +3280,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3199,11 +3292,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -3211,18 +3304,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -3492,14 +3585,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3777,8 +3870,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,16 +3885,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3931,11 +4024,19 @@
       <c r="D8" s="57">
         <v>1</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="E8" s="56">
+        <v>1</v>
+      </c>
+      <c r="F8" s="56">
+        <v>0</v>
+      </c>
       <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
+      <c r="H8" s="58">
+        <v>45257</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
@@ -3991,10 +4092,16 @@
       <c r="D12" s="57">
         <v>2</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
+      <c r="E12" s="56">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="56">
+        <v>0</v>
+      </c>
       <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="H12" s="58">
+        <v>45257</v>
+      </c>
       <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4008,10 +4115,16 @@
       <c r="D13" s="57">
         <v>3</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="E13" s="56">
+        <v>3</v>
+      </c>
+      <c r="F13" s="56">
+        <v>0</v>
+      </c>
       <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
+      <c r="H13" s="58">
+        <v>45257</v>
+      </c>
       <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4025,10 +4138,16 @@
       <c r="D14" s="57">
         <v>2</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
+      <c r="E14" s="56">
+        <v>1</v>
+      </c>
+      <c r="F14" s="56">
+        <v>0</v>
+      </c>
       <c r="G14" s="58"/>
-      <c r="H14" s="56"/>
+      <c r="H14" s="58">
+        <v>45264</v>
+      </c>
       <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4068,8 +4187,12 @@
       <c r="D17" s="57">
         <v>2</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="E17" s="56">
+        <v>1</v>
+      </c>
+      <c r="F17" s="56">
+        <v>1</v>
+      </c>
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
       <c r="I17" s="59"/>
@@ -4338,11 +4461,11 @@
       </c>
       <c r="E35" s="49">
         <f>SUM(E10:E34)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F35" s="49">
         <f>SUM(F10:F34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="70"/>
     </row>
@@ -4388,19 +4511,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -5064,16 +5187,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -5849,71 +5972,71 @@
       <c r="A21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="138" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="131" t="s">
+      <c r="B24" s="139" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="97"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="97"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="97"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5950,8 +6073,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5963,11 +6086,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="133" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -6069,14 +6192,26 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="104"/>
+      <c r="A12" s="40">
+        <v>45264</v>
+      </c>
+      <c r="B12" s="41">
+        <v>1</v>
+      </c>
+      <c r="C12" s="104" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="104"/>
+      <c r="A13" s="40">
+        <v>45264</v>
+      </c>
+      <c r="B13" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="C13" s="109" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\esy\projekt\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4C0426-EDFF-47A9-AA21-8B61345C2264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A8043A-4108-408E-82C0-598ACA767410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -1909,6 +1909,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1927,32 +1951,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2463,14 +2463,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2519,10 +2519,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="123"/>
+      <c r="F7" s="118"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2533,8 +2533,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2545,8 +2545,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2557,8 +2557,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2569,8 +2569,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2591,49 +2591,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2646,74 +2646,64 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="122"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123" t="s">
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118" t="s">
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="126" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="119" t="s">
+      <c r="A29" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -2724,6 +2714,16 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2738,7 +2738,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3047,11 +3047,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="132" t="s">
@@ -3280,8 +3280,8 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3885,16 +3885,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\esy\projekt\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A8043A-4108-408E-82C0-598ACA767410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697684F7-CF9F-4079-8918-5F109913A11C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="232">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1130,6 +1130,9 @@
   </si>
   <si>
     <t>Sourcetree installiert</t>
+  </si>
+  <si>
+    <t>Sensoren programmiert jedoch zu keinem wertvollen Ergebnis gekommen</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1570,7 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1909,12 +1912,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1923,36 +1959,6 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2463,14 +2469,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2519,10 +2525,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="118"/>
+      <c r="F7" s="124"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2533,8 +2539,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2545,8 +2551,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2557,8 +2563,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2569,8 +2575,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2591,49 +2597,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2646,64 +2652,74 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="130" t="s">
+      <c r="A23" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="118"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118" t="s">
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="125" t="s">
+      <c r="A28" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="126" t="s">
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="127" t="s">
+      <c r="A29" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -2714,16 +2730,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2739,7 +2745,7 @@
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,11 +2757,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="134" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -2867,10 +2873,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>45267</v>
+      </c>
+      <c r="B13" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="117" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
@@ -3047,29 +3059,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="132"/>
+      <c r="C3" s="133"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="133"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="132"/>
+      <c r="C5" s="133"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -3280,7 +3292,7 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -3292,11 +3304,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -3304,18 +3316,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -3585,14 +3597,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3870,8 +3882,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3885,16 +3897,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4191,10 +4203,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
+      <c r="H17" s="58">
+        <v>45271</v>
+      </c>
       <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
@@ -4208,8 +4222,12 @@
       <c r="D18" s="57">
         <v>1</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="E18" s="56">
+        <v>2</v>
+      </c>
+      <c r="F18" s="56">
+        <v>1</v>
+      </c>
       <c r="G18" s="58"/>
       <c r="H18" s="56"/>
       <c r="I18" s="59"/>
@@ -4461,7 +4479,7 @@
       </c>
       <c r="E35" s="49">
         <f>SUM(E10:E34)</f>
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="F35" s="49">
         <f>SUM(F10:F34)</f>
@@ -4511,19 +4529,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -5187,16 +5205,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -5972,71 +5990,71 @@
       <c r="A21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="139" t="s">
+      <c r="B22" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="97"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="97"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="97"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6073,8 +6091,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6086,11 +6104,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
     </row>
     <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -6213,10 +6231,16 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="104"/>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>45267</v>
+      </c>
+      <c r="B14" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\esy\projekt\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697684F7-CF9F-4079-8918-5F109913A11C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023650D0-CF8D-404B-A380-D5F63CB6F481}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -1132,7 +1132,7 @@
     <t>Sourcetree installiert</t>
   </si>
   <si>
-    <t>Sensoren programmiert jedoch zu keinem wertvollen Ergebnis gekommen</t>
+    <t>Sensoren programmiert jedoch zu keinem wertvollen Ergebnis gekommen, analogread verwendet zum einlesen des signals&gt; kein Erfolg, Sensoren werden nicht richtig angesteuert</t>
   </si>
 </sst>
 </file>
@@ -1915,6 +1915,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1933,32 +1957,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2469,14 +2469,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2525,10 +2525,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E7" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="124"/>
+      <c r="F7" s="119"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2539,8 +2539,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2551,8 +2551,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2563,8 +2563,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2575,8 +2575,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2597,49 +2597,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2652,74 +2652,64 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124" t="s">
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="119"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="119" t="s">
+      <c r="A27" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119" t="s">
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -2730,6 +2720,16 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2744,8 +2744,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2873,7 +2873,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>45267</v>
       </c>
@@ -3059,11 +3059,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="133" t="s">
@@ -3897,16 +3897,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -6091,8 +6091,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6231,7 +6231,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>45267</v>
       </c>

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\esy\projekt\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023650D0-CF8D-404B-A380-D5F63CB6F481}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562736B2-28DD-4CC5-8511-2C0777944BFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="233">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1133,6 +1133,9 @@
   </si>
   <si>
     <t>Sensoren programmiert jedoch zu keinem wertvollen Ergebnis gekommen, analogread verwendet zum einlesen des signals&gt; kein Erfolg, Sensoren werden nicht richtig angesteuert</t>
+  </si>
+  <si>
+    <t>An Sensoren gearbeitet, Auf etwas gestoßen, gemerkt, dass man einen Kehrwert bilden muss damit richtige Werte angezeigt werden am Serial Monitor. Geradengleichung mit Herr Professor aufgestellt.</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1573,7 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1915,12 +1918,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1929,36 +1965,6 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2071,6 +2077,911 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60931933508311475"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arbeitstagebuch_Mustafic!$F$9:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arbeitstagebuch_Mustafic!$G$9:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A4C-4F99-82E8-AB2EF2B41EE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1018182288"/>
+        <c:axId val="1021401504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1018182288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1021401504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1021401504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1018182288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2114,6 +3025,47 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>631626</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>223243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>631626</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>489943</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB231E94-C70E-406C-8339-50B8EFFA1DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2469,14 +3421,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2525,10 +3477,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="119" t="s">
+      <c r="E7" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="119"/>
+      <c r="F7" s="125"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2539,8 +3491,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2551,8 +3503,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2563,8 +3515,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2575,8 +3527,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2597,49 +3549,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2652,64 +3604,74 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119" t="s">
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="126" t="s">
+      <c r="A28" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="127" t="s">
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="128" t="s">
+      <c r="A29" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -2720,16 +3682,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2744,8 +3696,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2757,11 +3709,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -2875,7 +3827,7 @@
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
-        <v>45267</v>
+        <v>45271</v>
       </c>
       <c r="B13" s="41">
         <v>2.5</v>
@@ -2884,10 +3836,16 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>45278</v>
+      </c>
+      <c r="B14" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="C14" s="118" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
@@ -3059,29 +4017,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="133"/>
+      <c r="C3" s="134"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="133"/>
+      <c r="C4" s="134"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="133"/>
+      <c r="C5" s="134"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -3304,11 +4262,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -3316,18 +4274,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -3597,14 +4555,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3882,8 +4840,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3897,16 +4855,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4223,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="56">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F18" s="56">
         <v>1</v>
@@ -4479,7 +5437,7 @@
       </c>
       <c r="E35" s="49">
         <f>SUM(E10:E34)</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="F35" s="49">
         <f>SUM(F10:F34)</f>
@@ -4529,19 +5487,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -5205,16 +6163,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -5990,71 +6948,71 @@
       <c r="A21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="141" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="97"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="97"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="97"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6091,8 +7049,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C14"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6103,14 +7061,14 @@
     <col min="4" max="1024" width="11.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+    <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="135" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>194</v>
       </c>
@@ -6121,7 +7079,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>45188</v>
       </c>
@@ -6132,7 +7090,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <v>45236</v>
       </c>
@@ -6143,7 +7101,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>45236</v>
       </c>
@@ -6154,7 +7112,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>45243</v>
       </c>
@@ -6165,7 +7123,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <v>45243</v>
       </c>
@@ -6176,7 +7134,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>45243</v>
       </c>
@@ -6186,8 +7144,14 @@
       <c r="C9" s="23" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>45243</v>
       </c>
@@ -6197,8 +7161,14 @@
       <c r="C10" s="104" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="23">
+        <v>10</v>
+      </c>
+      <c r="G10" s="23">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>45257</v>
       </c>
@@ -6208,8 +7178,14 @@
       <c r="C11" s="104" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" s="23">
+        <v>20</v>
+      </c>
+      <c r="G11" s="23">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>45264</v>
       </c>
@@ -6219,8 +7195,14 @@
       <c r="C12" s="104" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12" s="23">
+        <v>30</v>
+      </c>
+      <c r="G12" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>45264</v>
       </c>
@@ -6230,10 +7212,16 @@
       <c r="C13" s="109" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="F13" s="23">
+        <v>40</v>
+      </c>
+      <c r="G13" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
-        <v>45267</v>
+        <v>45271</v>
       </c>
       <c r="B14" s="41">
         <v>2.5</v>
@@ -6241,93 +7229,123 @@
       <c r="C14" s="104" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="104"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F14" s="23">
+        <v>50</v>
+      </c>
+      <c r="G14" s="23">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>45278</v>
+      </c>
+      <c r="B15" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="23">
+        <v>60</v>
+      </c>
+      <c r="G15" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="104"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16" s="23">
+        <v>70</v>
+      </c>
+      <c r="G16" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="104"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17" s="23">
+        <v>80</v>
+      </c>
+      <c r="G17" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="104"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="104"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="104"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="104"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="104"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="104"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="104"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="104"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="104"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="104"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="104"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="104"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="104"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="41"/>
       <c r="C31" s="104"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="104"/>
@@ -6343,5 +7361,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\esy\projekt\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\001152\Documents\group-04\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562736B2-28DD-4CC5-8511-2C0777944BFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2035B51F-5547-4EA7-86F4-44E1FBAE93BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="235">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1136,6 +1136,12 @@
   </si>
   <si>
     <t>An Sensoren gearbeitet, Auf etwas gestoßen, gemerkt, dass man einen Kehrwert bilden muss damit richtige Werte angezeigt werden am Serial Monitor. Geradengleichung mit Herr Professor aufgestellt.</t>
+  </si>
+  <si>
+    <t>Sensoren abgebaut und überlegt wo man sie einbauen kann</t>
+  </si>
+  <si>
+    <t>Sensoren verstehen um es einzusetzen ( Wir verwenden Sensor Werte )</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1579,7 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1913,6 +1919,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3421,14 +3430,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3477,10 +3486,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="125"/>
+      <c r="F7" s="126"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -3491,8 +3500,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -3503,8 +3512,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -3515,8 +3524,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3527,8 +3536,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -3549,49 +3558,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -3604,61 +3613,61 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="125" t="s">
+      <c r="A26" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="125"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="125" t="s">
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="125"/>
-      <c r="F26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="119" t="s">
+      <c r="A28" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="120" t="s">
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3696,8 +3705,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3709,11 +3718,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="136" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3847,15 +3856,27 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>45299</v>
+      </c>
+      <c r="B15" s="41">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="40">
+        <v>45299</v>
+      </c>
+      <c r="B16" s="41">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
@@ -4017,29 +4038,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="134"/>
+      <c r="C3" s="135"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="134"/>
+      <c r="C4" s="135"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
+      <c r="C5" s="135"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -4248,10 +4269,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,11 +4283,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -4274,18 +4295,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -4332,7 +4353,9 @@
       <c r="B9" s="39">
         <v>45257</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="39">
+        <v>45257</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4353,9 +4376,7 @@
       <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="A12" s="119"/>
       <c r="B12" s="39">
         <v>45306</v>
       </c>
@@ -4363,7 +4384,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="39">
         <v>45320</v>
@@ -4372,25 +4393,25 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="39">
         <v>45341</v>
       </c>
       <c r="C14" s="41"/>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="39">
         <v>45355</v>
       </c>
       <c r="C15" s="41"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="39">
         <v>45362</v>
@@ -4398,17 +4419,21 @@
       <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="39">
+        <v>45362</v>
+      </c>
       <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="41"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4418,12 +4443,12 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="40"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="41"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="41"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="41"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4433,12 +4458,12 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="41"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4517,9 +4542,14 @@
       <c r="C40" s="41"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4555,14 +4585,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4840,7 +4870,7 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -4855,16 +4885,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -5487,19 +5517,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -6163,16 +6193,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -6948,71 +6978,71 @@
       <c r="A21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="142" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="97"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="97"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="97"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7062,11 +7092,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="136" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\001152\Documents\group-04\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\esy\car_projekt_1\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2035B51F-5547-4EA7-86F4-44E1FBAE93BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D558F24-D9A3-4874-BF95-08B975FD1FC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="238">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1142,6 +1142,15 @@
   </si>
   <si>
     <t>Sensoren verstehen um es einzusetzen ( Wir verwenden Sensor Werte )</t>
+  </si>
+  <si>
+    <t>gefehlt</t>
+  </si>
+  <si>
+    <t>Sensoren eingebaut und Auto stabiliesiert mit den Schrauben, Code überarbeitet</t>
+  </si>
+  <si>
+    <t>mit Köklü Sensoren angeschaut und nach Lösung gesucht, konnte nicht viel machen da ich eine Prüfung hatte</t>
   </si>
 </sst>
 </file>
@@ -1930,6 +1939,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1948,32 +1981,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3430,14 +3439,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3486,10 +3495,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="126"/>
+      <c r="F7" s="121"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -3500,8 +3509,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -3512,8 +3521,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -3524,8 +3533,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3536,8 +3545,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -3558,49 +3567,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -3613,74 +3622,64 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126" t="s">
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="121" t="s">
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -3691,6 +3690,16 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3705,8 +3714,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,10 +3887,16 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>45306</v>
+      </c>
+      <c r="B17" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
@@ -4038,11 +4053,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="135" t="s">
@@ -4271,8 +4286,8 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4871,7 +4886,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4885,16 +4900,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -5211,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="56">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="56">
         <v>1</v>
@@ -5467,7 +5482,7 @@
       </c>
       <c r="E35" s="49">
         <f>SUM(E10:E34)</f>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="F35" s="49">
         <f>SUM(F10:F34)</f>
@@ -7079,8 +7094,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7284,9 +7299,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="104"/>
+      <c r="A16" s="40">
+        <v>45299</v>
+      </c>
+      <c r="B16" s="41">
+        <v>0</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>235</v>
+      </c>
       <c r="F16" s="23">
         <v>70</v>
       </c>
@@ -7294,10 +7315,16 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="104"/>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>45306</v>
+      </c>
+      <c r="B17" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="104" t="s">
+        <v>237</v>
+      </c>
       <c r="F17" s="23">
         <v>80</v>
       </c>

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\esy\car_projekt_1\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D558F24-D9A3-4874-BF95-08B975FD1FC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF672A-CCF3-4444-A311-457AC8BA5363}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -3714,7 +3714,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -4286,8 +4286,8 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4368,9 +4368,7 @@
       <c r="B9" s="39">
         <v>45257</v>
       </c>
-      <c r="C9" s="39">
-        <v>45257</v>
-      </c>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4885,8 +4883,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5223,7 +5221,7 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="56">
         <v>6</v>
@@ -5478,7 +5476,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D35" s="49">
         <f>SUM(D10:D34)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E35" s="49">
         <f>SUM(E10:E34)</f>
@@ -7094,8 +7092,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\esy\car_projekt_1\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF672A-CCF3-4444-A311-457AC8BA5363}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD7E7F8-8DED-4A1E-8F3D-32F3B1706B0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="240">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1151,6 +1151,12 @@
   </si>
   <si>
     <t>mit Köklü Sensoren angeschaut und nach Lösung gesucht, konnte nicht viel machen da ich eine Prüfung hatte</t>
+  </si>
+  <si>
+    <t>Sensor gelötet weil Verbindung abgebrochen, dann mit Mustafic an Lösung gesucht, im Code implementiert jedoch ohne Erfolg</t>
+  </si>
+  <si>
+    <t>Lösung für die Lenkung gesucht und gefunden, versucht im Code umzusetzen jedoch nicht so erfolgreich aber wir sind auf dem richtigen Weg. Mussten SharpIr Library einfügen.</t>
   </si>
 </sst>
 </file>
@@ -1939,12 +1945,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1953,36 +1989,6 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3439,14 +3445,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3495,10 +3501,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="121"/>
+      <c r="F7" s="126"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -3509,8 +3515,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -3521,8 +3527,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -3533,8 +3539,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3545,8 +3551,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -3567,49 +3573,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -3622,64 +3628,74 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="133" t="s">
+      <c r="A23" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121" t="s">
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="128" t="s">
+      <c r="A28" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="129" t="s">
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -3690,16 +3706,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3714,8 +3720,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3898,10 +3904,16 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="2"/>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>45313</v>
+      </c>
+      <c r="B18" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
@@ -4053,11 +4065,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="135" t="s">
@@ -4286,8 +4298,8 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,8 +4895,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4898,16 +4910,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -5224,7 +5236,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="56">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="F18" s="56">
         <v>1</v>
@@ -5480,7 +5492,7 @@
       </c>
       <c r="E35" s="49">
         <f>SUM(E10:E34)</f>
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="F35" s="49">
         <f>SUM(F10:F34)</f>
@@ -7092,8 +7104,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7330,10 +7342,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="104"/>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>45313</v>
+      </c>
+      <c r="B18" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="C18" s="104" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\esy\car_projekt_1\Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\190040\Documents\group-04\Dokumentation\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD7E7F8-8DED-4A1E-8F3D-32F3B1706B0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102542F3-6F1A-4707-897C-4BAB1A887FFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="241">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1157,6 +1157,9 @@
   </si>
   <si>
     <t>Lösung für die Lenkung gesucht und gefunden, versucht im Code umzusetzen jedoch nicht so erfolgreich aber wir sind auf dem richtigen Weg. Mussten SharpIr Library einfügen.</t>
+  </si>
+  <si>
+    <t>Sonsor Lötstelle aufgegangen und wieder neu gelötet mit Köklü, Flussdiagramm mit Professor gemacht um mit dem Programm weiterzukommen. Stabile Sensorwerte aber Auto lenkt noch nicht. Sensoren im Programm vertauscht weil es unklar war, was welcher Sensor war.</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1597,7 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1945,6 +1948,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1963,32 +1993,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3445,14 +3451,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3501,10 +3507,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="126"/>
+      <c r="F7" s="122"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -3515,8 +3521,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -3527,8 +3533,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -3539,8 +3545,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3551,8 +3557,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -3573,49 +3579,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -3628,74 +3634,64 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126" t="s">
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="121" t="s">
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -3706,6 +3702,16 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3721,7 +3727,7 @@
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,11 +3739,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3915,10 +3921,16 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="2"/>
+    <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>45334</v>
+      </c>
+      <c r="B19" s="41">
+        <v>2</v>
+      </c>
+      <c r="C19" s="120" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
@@ -4065,29 +4077,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="135"/>
+      <c r="C3" s="136"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="135"/>
+      <c r="C4" s="136"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="135"/>
+      <c r="C5" s="136"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -4298,8 +4310,8 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4310,11 +4322,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -4322,18 +4334,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -4380,7 +4392,9 @@
       <c r="B9" s="39">
         <v>45257</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="39">
+        <v>45334</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4610,14 +4624,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4896,7 +4910,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4910,16 +4924,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -5239,10 +5253,12 @@
         <v>8.5</v>
       </c>
       <c r="F18" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="58"/>
-      <c r="H18" s="56"/>
+      <c r="H18" s="58">
+        <v>45334</v>
+      </c>
       <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -5496,7 +5512,7 @@
       </c>
       <c r="F35" s="49">
         <f>SUM(F10:F34)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="70"/>
     </row>
@@ -5542,19 +5558,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -6218,16 +6234,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -7003,71 +7019,71 @@
       <c r="A21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="143" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="143" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="143" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="97"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="97"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="97"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7104,8 +7120,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7117,11 +7133,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="137" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -7353,10 +7369,16 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="104"/>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>45334</v>
+      </c>
+      <c r="B19" s="41">
+        <v>2</v>
+      </c>
+      <c r="C19" s="104" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\190040\Documents\group-04\Dokumentation\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102542F3-6F1A-4707-897C-4BAB1A887FFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC9D120-A4B0-4A65-9731-CDC1C667012A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="242">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1160,6 +1160,9 @@
   </si>
   <si>
     <t>Sonsor Lötstelle aufgegangen und wieder neu gelötet mit Köklü, Flussdiagramm mit Professor gemacht um mit dem Programm weiterzukommen. Stabile Sensorwerte aber Auto lenkt noch nicht. Sensoren im Programm vertauscht weil es unklar war, was welcher Sensor war.</t>
+  </si>
+  <si>
+    <t>Den großen Sensor gelötet und angeschlossen und versucht den Sensor zu implementieren. Die äußeren sensoren haben funktioniert jedoch der große noch nicht und das wird versucht beim nächsten mal zu verbessern gemeinsam mit KÖKLÜ nachdem er heute nicht da war.</t>
   </si>
 </sst>
 </file>
@@ -1951,12 +1954,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1965,36 +1998,6 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3451,14 +3454,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="132" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3507,10 +3510,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="122"/>
+      <c r="F7" s="127"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -3521,8 +3524,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -3533,8 +3536,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -3545,8 +3548,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3557,8 +3560,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -3579,49 +3582,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -3634,64 +3637,74 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="122" t="s">
+      <c r="A26" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122" t="s">
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="127"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="129" t="s">
+      <c r="A28" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="130" t="s">
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="122" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -3702,16 +3715,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4077,11 +4080,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="136" t="s">
@@ -4909,7 +4912,7 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -4924,16 +4927,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -7120,8 +7123,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7380,10 +7383,16 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="104"/>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>45348</v>
+      </c>
+      <c r="B20" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="C20" s="104" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\190040\Documents\group-04\Dokumentation\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC9D120-A4B0-4A65-9731-CDC1C667012A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946BC752-153F-48FB-855F-665A6A4A57CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="244">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1163,6 +1163,12 @@
   </si>
   <si>
     <t>Den großen Sensor gelötet und angeschlossen und versucht den Sensor zu implementieren. Die äußeren sensoren haben funktioniert jedoch der große noch nicht und das wird versucht beim nächsten mal zu verbessern gemeinsam mit KÖKLÜ nachdem er heute nicht da war.</t>
+  </si>
+  <si>
+    <t>Loch in das Auto gebohrt um den dritten Sensor einzubauen. Danach mit Köklü den Code erweitert mit den Codezeilen vom Herr Professor.</t>
+  </si>
+  <si>
+    <t>Loch in das Auto gebohrt um den dritten Sensor einzubauen. Danach mit Mustafic den Code erweitert mit den Codezeilen vom Herr Professor.</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1606,7 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1954,6 +1960,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1972,32 +2005,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3454,14 +3463,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="122" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3510,10 +3519,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="123"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -3524,8 +3533,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -3536,8 +3545,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -3548,8 +3557,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3560,8 +3569,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -3582,49 +3591,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="131"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -3637,74 +3646,64 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="127" t="s">
+      <c r="A26" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127" t="s">
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="121" t="s">
+      <c r="A28" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="122" t="s">
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="131" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="124"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -3715,6 +3714,16 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3730,7 +3739,7 @@
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,11 +3751,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3935,10 +3944,16 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="2"/>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>45362</v>
+      </c>
+      <c r="B20" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="C20" s="121" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
@@ -4080,29 +4095,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="136"/>
+      <c r="C3" s="137"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="137"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="136"/>
+      <c r="C5" s="137"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -4325,11 +4340,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -4337,18 +4352,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -4627,14 +4642,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4912,8 +4927,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4927,16 +4942,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -5335,8 +5350,12 @@
       <c r="D23" s="63">
         <v>2</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
+      <c r="E23" s="64">
+        <v>1</v>
+      </c>
+      <c r="F23" s="64">
+        <v>0</v>
+      </c>
       <c r="G23" s="58"/>
       <c r="H23" s="64"/>
       <c r="I23" s="65"/>
@@ -5386,8 +5405,12 @@
       <c r="D26" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
+      <c r="E26" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" s="64">
+        <v>0</v>
+      </c>
       <c r="G26" s="58"/>
       <c r="H26" s="64"/>
       <c r="I26" s="65"/>
@@ -5403,8 +5426,12 @@
       <c r="D27" s="63">
         <v>1</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
+      <c r="E27" s="64">
+        <v>4</v>
+      </c>
+      <c r="F27" s="64">
+        <v>0</v>
+      </c>
       <c r="G27" s="58"/>
       <c r="H27" s="64"/>
       <c r="I27" s="65"/>
@@ -5511,7 +5538,7 @@
       </c>
       <c r="E35" s="49">
         <f>SUM(E10:E34)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F35" s="49">
         <f>SUM(F10:F34)</f>
@@ -5561,19 +5588,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -6237,16 +6264,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -7022,71 +7049,71 @@
       <c r="A21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="142" t="s">
+      <c r="B21" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="144" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="144" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="97"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="97"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="97"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7123,8 +7150,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7136,11 +7163,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -7394,10 +7421,16 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="104"/>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>45362</v>
+      </c>
+      <c r="B21" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="C21" s="104" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>

--- a/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
+++ b/Dokumentation/Projekt-Steuerung_Autonom-Fahrendes-Auto_Gruppe_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\190040\Documents\group-04\Dokumentation\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946BC752-153F-48FB-855F-665A6A4A57CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B2E774-B1D7-4044-A7D2-9A6B30BB2057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7515" tabRatio="752" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="246">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1169,6 +1169,12 @@
   </si>
   <si>
     <t>Loch in das Auto gebohrt um den dritten Sensor einzubauen. Danach mit Mustafic den Code erweitert mit den Codezeilen vom Herr Professor.</t>
+  </si>
+  <si>
+    <t>Dritten Sensor mit Heißkleber befestigt, dann dritten Sensor im Code implementiert mit Mustafic, vorderen Sensor neu verkabelt mit einem Stecker, ebenso paar Testfahrten gemacht und Auto hat es nicht geschafft bei der 2 Kurve zu lenken weil es zu schnell war.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dritten Sensor im Code implementiert mit Köklü, vorderen Sensor neu verkabelt mit einem Stecker, ebenso paar Testfahrten gemacht und Auto hat es nicht geschafft bei der 2 Kurve zu lenken weil es zu schnell war.</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1612,7 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1963,12 +1969,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1977,36 +2016,6 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3463,14 +3472,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="134" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3519,10 +3528,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="123"/>
+      <c r="F7" s="129"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -3533,8 +3542,8 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -3545,8 +3554,8 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -3557,8 +3566,8 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3569,8 +3578,8 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -3591,49 +3600,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -3646,64 +3655,74 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123" t="s">
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="130" t="s">
+      <c r="A28" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131" t="s">
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="124" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -3714,16 +3733,6 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3738,8 +3747,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3751,11 +3760,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -3955,10 +3964,16 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="2"/>
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>45369</v>
+      </c>
+      <c r="B21" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
@@ -4095,29 +4110,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="137"/>
+      <c r="C3" s="138"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="137"/>
+      <c r="C4" s="138"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="137"/>
+      <c r="C5" s="138"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -4328,8 +4343,8 @@
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4340,11 +4355,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -4352,18 +4367,18 @@
       <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
@@ -4421,7 +4436,9 @@
       <c r="B10" s="40">
         <v>45271</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="39">
+        <v>45369</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -4642,14 +4659,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
     </row>
     <row r="3" spans="1:6" s="43" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -4927,8 +4944,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4942,16 +4959,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -5427,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="64">
         <v>0</v>
@@ -5538,7 +5555,7 @@
       </c>
       <c r="E35" s="49">
         <f>SUM(E10:E34)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F35" s="49">
         <f>SUM(F10:F34)</f>
@@ -5588,19 +5605,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -6264,16 +6281,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="36"/>
@@ -7049,71 +7066,71 @@
       <c r="A21" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="143" t="s">
+      <c r="B21" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="145" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="145" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="97"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="97"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="97"/>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="97"/>
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="97"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7150,8 +7167,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7163,11 +7180,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -7432,10 +7449,16 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="104"/>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>45369</v>
+      </c>
+      <c r="B22" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="C22" s="122" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
